--- a/biology/Médecine/Liste_des_cancérogènes_du_groupe_2A_du_CIRC/Liste_des_cancérogènes_du_groupe_2A_du_CIRC.xlsx
+++ b/biology/Médecine/Liste_des_cancérogènes_du_groupe_2A_du_CIRC/Liste_des_cancérogènes_du_groupe_2A_du_CIRC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_2A_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_2A_du_CIRC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des cancérogènes du groupe 2A du CIRC référence les agents classés comme probablement cancérogènes, parfois appelés cancérogènes possibles, pour l’homme par le Centre international de Recherche sur le Cancer (CIRC).
-Le classement des cancérogènes par groupe du CIRC ne reflète pas le niveau de risque, mais le degré de certitude quant à l'effet cancérigène d'une substance. Cela ne reflète donc pas la probabilité de causer un cancer compte tenu du niveau d'exposition à cet agent cancérigène mais indique le degré de certitude de la capacité à provoquer un cancer d'un agent peu importe le niveau de risque encouru[1].
+Le classement des cancérogènes par groupe du CIRC ne reflète pas le niveau de risque, mais le degré de certitude quant à l'effet cancérigène d'une substance. Cela ne reflète donc pas la probabilité de causer un cancer compte tenu du niveau d'exposition à cet agent cancérigène mais indique le degré de certitude de la capacité à provoquer un cancer d'un agent peu importe le niveau de risque encouru.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_2A_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_2A_du_CIRC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Classification par le CIRC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le CIRC classe les agents, mélanges et expositions en 4 autres catégories[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le CIRC classe les agents, mélanges et expositions en 4 autres catégories :
 Catégorie 1: cancérogène certains pour l'homme.
 Catégorie 2A : cancérogène probable pour l'homme.
 Catégorie 2B : cancérogène possible pour l'homme.
 Catégorie 3 : inclassable quant à sa cancérogénicité pour l'homme.
-Catégorie 4 : probablement non cancérogène pour l'homme. Seul le caprolactame a déjà été classé dans cette catégorie, avant d'être reclassé dans la catégorie 3 en 2019[3].</t>
+Catégorie 4 : probablement non cancérogène pour l'homme. Seul le caprolactame a déjà été classé dans cette catégorie, avant d'être reclassé dans la catégorie 3 en 2019.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_2A_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_2A_du_CIRC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Substances
-Mélanges
-Expositions professionnelles et autres
-Les circonstances d’exposition, professionnelles ou autres, comportent un risque de contact avec un agent cancérogène pour l’homme. Le classement d’un agent dans cette catégorie est préconisé lorsqu’il existe des indices concordants de sa cancérogénicité pour l'homme et des preuves suffisantes de cancérogénicité expérimentale chez les animaux de laboratoire. Dans certains cas, un agent (ou un mélange) peut être classé dans cette catégorie lorsqu'il existe des preuves insuffisantes de sa cancérogénicité pour l'homme et des preuves suffisantes de sa cancérogénicité pour les animaux de laboratoire ainsi que de fortes présomptions que la cancérogenèse est induite par un mécanisme qui fonctionne également chez l'homme. Exceptionnellement, un agent, un mélange ou une circonstance d'exposition peut être classé dans cette catégorie uniquement sur la base de preuves limitées de sa cancérogénicité pour l'homme[7].
+          <t>Expositions professionnelles et autres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les circonstances d’exposition, professionnelles ou autres, comportent un risque de contact avec un agent cancérogène pour l’homme. Le classement d’un agent dans cette catégorie est préconisé lorsqu’il existe des indices concordants de sa cancérogénicité pour l'homme et des preuves suffisantes de cancérogénicité expérimentale chez les animaux de laboratoire. Dans certains cas, un agent (ou un mélange) peut être classé dans cette catégorie lorsqu'il existe des preuves insuffisantes de sa cancérogénicité pour l'homme et des preuves suffisantes de sa cancérogénicité pour les animaux de laboratoire ainsi que de fortes présomptions que la cancérogenèse est induite par un mécanisme qui fonctionne également chez l'homme. Exceptionnellement, un agent, un mélange ou une circonstance d'exposition peut être classé dans cette catégorie uniquement sur la base de preuves limitées de sa cancérogénicité pour l'homme.
 </t>
         </is>
       </c>
